--- a/TestData/testData.xlsx
+++ b/TestData/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48594a24c67f2334/Desktop/AutomationFramework/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC104896E9DF59EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5A852A8-F65A-4A28-90BF-206CC5BAFBC0}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC104896E9DF59EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C433EC-339E-45DC-8C73-D3FC96BD9D9F}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>mngr463587</t>
+    <t>yrYzAqA</t>
   </si>
   <si>
-    <t>yrYzAqA</t>
+    <t>mngr463556</t>
+  </si>
+  <si>
+    <t>mngr470243</t>
+  </si>
+  <si>
+    <t>zadUvEz</t>
   </si>
 </sst>
 </file>
@@ -86,6 +92,18 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -352,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,10 +383,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
